--- a/members_timeline/fraser_timeline.xlsx
+++ b/members_timeline/fraser_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rediaz/GitHub/fraser-lab.github.io/members_timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBF779-D04A-B64F-A7E0-3182CE56F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F2496-F78F-5841-BEE4-88C2D6BB13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="13920" xr2:uid="{5AF1D220-5B8E-364F-B347-C4AEA79D6E8B}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="12800" windowHeight="13880" xr2:uid="{5AF1D220-5B8E-364F-B347-C4AEA79D6E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5046BD0-EAEA-DD40-9ABF-324BF6142612}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>40909</v>
+        <v>41061</v>
       </c>
       <c r="C7" s="1">
         <v>42826</v>
